--- a/02Controlled library/03Support/01CM/YD-基线状态报告.xlsx
+++ b/02Controlled library/03Support/01CM/YD-基线状态报告.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>基线状态报告</t>
   </si>
@@ -77,6 +77,24 @@
   </si>
   <si>
     <t>B001</t>
+  </si>
+  <si>
+    <t>界面原型</t>
+  </si>
+  <si>
+    <t>系统构架设计</t>
+  </si>
+  <si>
+    <t>概念模型</t>
+  </si>
+  <si>
+    <t>物理模型</t>
+  </si>
+  <si>
+    <t>系统分析设计模型</t>
+  </si>
+  <si>
+    <t>数据库设计说明书</t>
   </si>
   <si>
     <t>开发基线</t>
@@ -120,10 +138,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -192,7 +210,98 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,16 +315,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,6 +330,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -237,65 +345,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -303,37 +352,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -356,19 +374,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,79 +536,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,79 +554,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -993,20 +1011,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1027,6 +1034,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1037,6 +1059,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1056,26 +1087,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1096,10 +1114,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1108,133 +1126,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="42" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="43" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1354,9 +1372,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1368,6 +1383,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1871,7 +1889,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="I10" sqref="I10:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.77777777777778" defaultRowHeight="14.4"/>
@@ -2018,11 +2036,17 @@
         <v>20</v>
       </c>
       <c r="C7" s="29"/>
-      <c r="D7" s="23"/>
+      <c r="D7" s="23" t="s">
+        <v>21</v>
+      </c>
       <c r="E7" s="30"/>
       <c r="F7" s="31"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="26"/>
+      <c r="G7" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="26">
+        <v>44021</v>
+      </c>
       <c r="I7" s="90"/>
       <c r="J7" s="92"/>
     </row>
@@ -2030,11 +2054,17 @@
       <c r="A8" s="33"/>
       <c r="B8" s="34"/>
       <c r="C8" s="35"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="26"/>
+      <c r="D8" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="37"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="26">
+        <v>44021</v>
+      </c>
       <c r="I8" s="90"/>
       <c r="J8" s="92"/>
     </row>
@@ -2042,11 +2072,17 @@
       <c r="A9" s="33"/>
       <c r="B9" s="34"/>
       <c r="C9" s="35"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="26"/>
+      <c r="D9" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="37"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="26">
+        <v>44021</v>
+      </c>
       <c r="I9" s="90"/>
       <c r="J9" s="92"/>
     </row>
@@ -2054,11 +2090,17 @@
       <c r="A10" s="33"/>
       <c r="B10" s="34"/>
       <c r="C10" s="35"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="26"/>
+      <c r="D10" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="39"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="26">
+        <v>44021</v>
+      </c>
       <c r="I10" s="90"/>
       <c r="J10" s="92"/>
     </row>
@@ -2066,11 +2108,17 @@
       <c r="A11" s="33"/>
       <c r="B11" s="34"/>
       <c r="C11" s="35"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="26"/>
+      <c r="D11" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="41"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="26">
+        <v>44021</v>
+      </c>
       <c r="I11" s="90"/>
       <c r="J11" s="92"/>
     </row>
@@ -2078,11 +2126,17 @@
       <c r="A12" s="33"/>
       <c r="B12" s="34"/>
       <c r="C12" s="35"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="26"/>
+      <c r="D12" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="30"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="26">
+        <v>44021</v>
+      </c>
       <c r="I12" s="90"/>
       <c r="J12" s="92"/>
     </row>
@@ -2099,31 +2153,31 @@
       <c r="J13" s="92"/>
     </row>
     <row r="14" s="3" customFormat="1" ht="16.5" customHeight="1" spans="1:10">
-      <c r="A14" s="39"/>
+      <c r="A14" s="43"/>
       <c r="B14" s="34"/>
       <c r="C14" s="35"/>
       <c r="D14" s="36"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="41"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="40"/>
       <c r="G14" s="32"/>
       <c r="H14" s="26"/>
       <c r="I14" s="90"/>
       <c r="J14" s="92"/>
     </row>
     <row r="15" s="3" customFormat="1" ht="16.5" customHeight="1" spans="1:10">
-      <c r="A15" s="39"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="34"/>
       <c r="C15" s="35"/>
       <c r="D15" s="36"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="43"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="42"/>
       <c r="G15" s="32"/>
       <c r="H15" s="26"/>
       <c r="I15" s="90"/>
       <c r="J15" s="92"/>
     </row>
     <row r="16" s="3" customFormat="1" ht="16.5" customHeight="1" spans="1:10">
-      <c r="A16" s="39"/>
+      <c r="A16" s="43"/>
       <c r="B16" s="34"/>
       <c r="C16" s="35"/>
       <c r="D16" s="23"/>
@@ -2136,10 +2190,10 @@
     </row>
     <row r="17" s="3" customFormat="1" ht="16.5" customHeight="1" spans="1:10">
       <c r="A17" s="27" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C17" s="45"/>
       <c r="D17" s="36"/>
@@ -2155,8 +2209,8 @@
       <c r="B18" s="46"/>
       <c r="C18" s="47"/>
       <c r="D18" s="36"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="41"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="40"/>
       <c r="G18" s="32"/>
       <c r="H18" s="26"/>
       <c r="I18" s="93"/>
@@ -2179,8 +2233,8 @@
       <c r="B20" s="46"/>
       <c r="C20" s="47"/>
       <c r="D20" s="36"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="41"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="40"/>
       <c r="G20" s="32"/>
       <c r="H20" s="26"/>
       <c r="I20" s="93"/>
@@ -2191,8 +2245,8 @@
       <c r="B21" s="46"/>
       <c r="C21" s="47"/>
       <c r="D21" s="36"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="41"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="40"/>
       <c r="G21" s="32"/>
       <c r="H21" s="26"/>
       <c r="I21" s="93"/>
@@ -2203,8 +2257,8 @@
       <c r="B22" s="46"/>
       <c r="C22" s="47"/>
       <c r="D22" s="36"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="41"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="40"/>
       <c r="G22" s="32"/>
       <c r="H22" s="26"/>
       <c r="I22" s="93"/>
@@ -2215,8 +2269,8 @@
       <c r="B23" s="48"/>
       <c r="C23" s="49"/>
       <c r="D23" s="36"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="41"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="40"/>
       <c r="G23" s="32"/>
       <c r="H23" s="26"/>
       <c r="I23" s="93"/>
@@ -2246,7 +2300,7 @@
     </row>
     <row r="26" s="1" customFormat="1" ht="18" customHeight="1" spans="1:10">
       <c r="A26" s="59" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B26" s="60"/>
       <c r="C26" s="60"/>
@@ -2260,46 +2314,46 @@
     </row>
     <row r="27" s="1" customFormat="1" ht="18" customHeight="1" spans="1:10">
       <c r="A27" s="61" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B27" s="62" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C27" s="63"/>
       <c r="D27" s="63"/>
       <c r="E27" s="64"/>
       <c r="F27" s="62" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G27" s="63"/>
       <c r="H27" s="64"/>
       <c r="I27" s="62" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="J27" s="98"/>
     </row>
     <row r="28" s="1" customFormat="1" ht="18" customHeight="1" spans="1:10">
       <c r="A28" s="61"/>
       <c r="B28" s="62" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C28" s="65"/>
       <c r="D28" s="62" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E28" s="65"/>
       <c r="F28" s="66" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G28" s="62" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H28" s="67"/>
       <c r="I28" s="66" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J28" s="99" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" ht="18" customHeight="1" spans="1:10">
@@ -2350,10 +2404,10 @@
       <c r="G31" s="76"/>
       <c r="H31" s="80"/>
       <c r="I31" s="102" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="J31" s="103" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" ht="15.9" spans="1:8">
@@ -2368,7 +2422,7 @@
     </row>
     <row r="33" s="1" customFormat="1" ht="15.15" spans="1:10">
       <c r="A33" s="81" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B33" s="82"/>
       <c r="C33" s="82"/>
@@ -2382,7 +2436,7 @@
     </row>
     <row r="34" s="1" customFormat="1" spans="1:10">
       <c r="A34" s="83" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C34" s="58"/>
       <c r="D34" s="58"/>
@@ -2404,7 +2458,7 @@
     </row>
     <row r="36" s="1" customFormat="1" ht="15.15" spans="1:10">
       <c r="A36" s="84" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B36" s="85"/>
       <c r="C36" s="85"/>
